--- a/ValueSet-bc-administrative-gender-value-set.xlsx
+++ b/ValueSet-bc-administrative-gender-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T00:01:37+00:00</t>
+    <t>2021-11-10T17:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-administrative-gender-value-set.xlsx
+++ b/ValueSet-bc-administrative-gender-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:08:38+00:00</t>
+    <t>2021-11-10T17:51:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-administrative-gender-value-set.xlsx
+++ b/ValueSet-bc-administrative-gender-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:51:54+00:00</t>
+    <t>2021-11-10T18:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-administrative-gender-value-set.xlsx
+++ b/ValueSet-bc-administrative-gender-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-administrative-gender-value-set</t>
+    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-administrative-gender-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,10 +58,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T18:31:12+00:00</t>
+    <t>2021-11-17T18:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>BC Ministry of Health</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -234,7 +243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,34 +319,44 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -359,12 +378,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -386,32 +405,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-administrative-gender-value-set.xlsx
+++ b/ValueSet-bc-administrative-gender-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-administrative-gender-value-set</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-administrative-gender-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T18:19:53+00:00</t>
+    <t>2021-11-17T21:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
   <si>
     <t>Description</t>
@@ -243,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -343,20 +349,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -378,12 +392,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -405,32 +419,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-administrative-gender-value-set.xlsx
+++ b/ValueSet-bc-administrative-gender-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
